--- a/Семенов Николай ФИИТ-20/Docs/testCase1.xlsx
+++ b/Семенов Николай ФИИТ-20/Docs/testCase1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>№</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -925,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L14"/>
+  <dimension ref="A2:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,6 +1276,28 @@
         <v>1.1057222664182587</v>
       </c>
     </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Семенов Николай ФИИТ-20/Docs/testCase1.xlsx
+++ b/Семенов Николай ФИИТ-20/Docs/testCase1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>№</t>
   </si>
@@ -91,15 +91,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>x1</t>
-  </si>
-  <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
 </sst>
 </file>
@@ -934,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L19"/>
+  <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,28 +1267,6 @@
         <v>1.1057222664182587</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Семенов Николай ФИИТ-20/Docs/testCase1.xlsx
+++ b/Семенов Николай ФИИТ-20/Docs/testCase1.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Семенов Николай ФИИТ-20\тест\Testing\Семенов Николай ФИИТ-20\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Testing\Семенов Николай ФИИТ-20\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6D15ED-0F99-49AF-A634-EDD0D3741865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testCase1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>№</t>
   </si>
@@ -91,12 +92,39 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>от1</t>
+  </si>
+  <si>
+    <t>от2</t>
+  </si>
+  <si>
+    <t>от3</t>
+  </si>
+  <si>
+    <t>от4</t>
+  </si>
+  <si>
+    <t>от5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,7 +279,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,8 +465,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -553,6 +593,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -598,12 +653,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -924,25 +985,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28:T28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -971,7 +1033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1005,7 +1067,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1035,11 +1097,11 @@
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="e">
-        <f t="shared" ref="L4:L14" si="0">EXP((SQRT(I4*I4-3*I4+2)/(H4-10))*J4)</f>
+        <f t="shared" ref="L4:L15" si="0">EXP((SQRT(I4*I4-3*I4+2)/(H4-10))*J4)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1073,7 +1135,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1107,7 +1169,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1141,7 +1203,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1175,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H9" s="2">
         <v>9.99</v>
       </c>
@@ -1191,7 +1253,7 @@
         <v>2.4490327613688608E-38</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H10" s="2">
         <v>10.01</v>
       </c>
@@ -1207,7 +1269,7 @@
         <v>27.567148453342824</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H11">
         <v>11</v>
       </c>
@@ -1222,7 +1284,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H12">
         <v>11</v>
       </c>
@@ -1237,7 +1299,7 @@
         <v>1.1057222664182624</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H13">
         <v>11</v>
       </c>
@@ -1252,7 +1314,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H14">
         <v>11</v>
       </c>
@@ -1265,6 +1327,828 @@
       <c r="L14" s="1">
         <f t="shared" si="0"/>
         <v>1.1057222664182587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22999588864622458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="8">
+        <v>1</v>
+      </c>
+      <c r="L16" s="8">
+        <v>2</v>
+      </c>
+      <c r="M16" s="8">
+        <v>3</v>
+      </c>
+      <c r="N16" s="8">
+        <v>4</v>
+      </c>
+      <c r="O16" s="8">
+        <v>5</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="E17" s="5">
+        <f>(G17-F17)/(J17-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>5</v>
+      </c>
+      <c r="H17" s="6">
+        <v>10</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>5</v>
+      </c>
+      <c r="K17" s="5">
+        <f>$F17+(K$16-1)*$E17</f>
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" ref="L17:O17" si="1">$F17+(L$16-1)*$E17</f>
+        <v>2</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P17" s="5" t="e">
+        <f>EXP((SQRT($I17*$I17-3*$I17+2)/($H17-10))*K17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q17" s="5" t="e">
+        <f t="shared" ref="Q17:T17" si="2">EXP((SQRT($I17*$I17-3*$I17+2)/($H17-10))*L$17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R17" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S17" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="E18" s="5">
+        <f t="shared" ref="E18:E28" si="3">(G18-F18)/(J18-1)</f>
+        <v>49.25</v>
+      </c>
+      <c r="F18" s="5">
+        <v>3</v>
+      </c>
+      <c r="G18" s="5">
+        <v>200</v>
+      </c>
+      <c r="H18" s="6">
+        <v>10</v>
+      </c>
+      <c r="I18" s="6">
+        <v>4</v>
+      </c>
+      <c r="J18" s="6">
+        <v>5</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" ref="K18:O28" si="4">$F18+(K$16-1)*$E18</f>
+        <v>3</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="4"/>
+        <v>52.25</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" si="4"/>
+        <v>101.5</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" si="4"/>
+        <v>150.75</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="P18" s="5" t="e">
+        <f t="shared" ref="P18:P28" si="5">EXP((SQRT($I18*$I18-3*$I18+2)/($H18-10))*K18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q18" s="5" t="e">
+        <f t="shared" ref="Q18:Q28" si="6">EXP((SQRT($I18*$I18-3*$I18+2)/($H18-10))*L18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R18" s="5" t="e">
+        <f t="shared" ref="R18:R28" si="7">EXP((SQRT($I18*$I18-3*$I18+2)/($H18-10))*M18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S18" s="5" t="e">
+        <f t="shared" ref="S18:S28" si="8">EXP((SQRT($I18*$I18-3*$I18+2)/($H18-10))*N18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T18" s="5" t="e">
+        <f t="shared" ref="T18:T28" si="9">EXP((SQRT($I18*$I18-3*$I18+2)/($H18-10))*O18)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="E19" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="F19" s="5">
+        <v>20</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" ref="G19:G28" ca="1" si="10">RANDBETWEEN(20,30)</f>
+        <v>27</v>
+      </c>
+      <c r="H19" s="6">
+        <v>-5</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="J19" s="6">
+        <v>5</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.75</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>23.5</v>
+      </c>
+      <c r="N19" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>25.25</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="P19" s="5" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q19" s="5" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R19" s="5" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S19" s="5" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T19" s="5" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="20" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="E20" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="F20" s="5">
+        <f ca="1">RANDBETWEEN(1,20)</f>
+        <v>13</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="H20" s="6">
+        <v>55</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="J20" s="6">
+        <v>5</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>15.5</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="N20" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>20.5</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="P20" s="5" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q20" s="5" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R20" s="5" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S20" s="5" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T20" s="5" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="21" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="E21" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.25</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" ref="F21:G28" ca="1" si="11">RANDBETWEEN(1,20)</f>
+        <v>17</v>
+      </c>
+      <c r="G21" s="5">
+        <f ca="1">RANDBETWEEN(20,30)</f>
+        <v>26</v>
+      </c>
+      <c r="H21" s="6">
+        <v>10</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="J21" s="6">
+        <v>5</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.25</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.5</v>
+      </c>
+      <c r="N21" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>23.75</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="P21" s="5" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q21" s="5" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R21" s="5" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S21" s="5" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T21" s="5" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="22" spans="5:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" ca="1" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="H22" s="9">
+        <v>11</v>
+      </c>
+      <c r="I22" s="9">
+        <v>-5</v>
+      </c>
+      <c r="J22" s="9">
+        <v>5</v>
+      </c>
+      <c r="K22" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>20.5</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="N22" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>23.5</v>
+      </c>
+      <c r="O22" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="P22" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.9953567541910474E+53</v>
+      </c>
+      <c r="Q22" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.9919869490990199E+57</v>
+      </c>
+      <c r="R22" s="9">
+        <f t="shared" ca="1" si="7"/>
+        <v>8.3195210938088718E+61</v>
+      </c>
+      <c r="S22" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.3865106607063744E+66</v>
+      </c>
+      <c r="T22" s="9">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.3107241277182175E+70</v>
+      </c>
+    </row>
+    <row r="23" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="E23" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="H23" s="6">
+        <v>9.99</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J23" s="6">
+        <v>5</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.5</v>
+      </c>
+      <c r="M23" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="N23" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.5</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="P23" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.8099404771803098E-189</v>
+      </c>
+      <c r="Q23" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="5">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="5">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="5">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" ca="1" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" ca="1" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="H24" s="9">
+        <v>10.01</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="J24" s="9">
+        <v>5</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="L24" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>20.5</v>
+      </c>
+      <c r="M24" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="N24" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>25.5</v>
+      </c>
+      <c r="O24" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="P24" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.8643699703697118E+259</v>
+      </c>
+      <c r="Q24" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.9069013401108E+295</v>
+      </c>
+      <c r="R24" s="9" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S24" s="9" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T24" s="9" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="25" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="E25" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="H25" s="5">
+        <v>11</v>
+      </c>
+      <c r="I25" s="5">
+        <v>1.01</v>
+      </c>
+      <c r="J25" s="6">
+        <v>5</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="M25" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="N25" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="O25" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="P25" s="5" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q25" s="5" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R25" s="5" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S25" s="5" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T25" s="5" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="26" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="E26" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="H26" s="5">
+        <v>11</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="J26" s="6">
+        <v>5</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>17.75</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.5</v>
+      </c>
+      <c r="N26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.25</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="P26" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.5205575222177332</v>
+      </c>
+      <c r="Q26" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.9527477682669394</v>
+      </c>
+      <c r="R26" s="5">
+        <f t="shared" ca="1" si="7"/>
+        <v>6.4187730768127036</v>
+      </c>
+      <c r="S26" s="5">
+        <f t="shared" ca="1" si="8"/>
+        <v>6.9212823078527022</v>
+      </c>
+      <c r="T26" s="5">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.4631316938192862</v>
+      </c>
+    </row>
+    <row r="27" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="E27" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.25</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="H27" s="5">
+        <v>11</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1.99</v>
+      </c>
+      <c r="J27" s="6">
+        <v>5</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.25</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>14.5</v>
+      </c>
+      <c r="N27" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>20.75</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="P27" s="5" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q27" s="5" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R27" s="5" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S27" s="5" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T27" s="5" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="28" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="E28" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="H28" s="5">
+        <v>11</v>
+      </c>
+      <c r="I28" s="5">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="J28" s="6">
+        <v>5</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="L28" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="M28" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="N28" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="P28" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.7495535908795112</v>
+      </c>
+      <c r="Q28" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.2521508910672505</v>
+      </c>
+      <c r="R28" s="5">
+        <f t="shared" ca="1" si="7"/>
+        <v>10.089259002396988</v>
+      </c>
+      <c r="S28" s="5">
+        <f t="shared" ca="1" si="8"/>
+        <v>12.335347300500429</v>
+      </c>
+      <c r="T28" s="5">
+        <f t="shared" ca="1" si="9"/>
+        <v>15.081463662278191</v>
       </c>
     </row>
   </sheetData>
